--- a/Proyectos/2017/2/P2222 - RNCFACMU, MIGUEL ESPARZA BELMONTE_NT/Compras/P2222 - RNCFACMU, MIGUEL ESPARZA BELMONTE_NT.xlsx
+++ b/Proyectos/2017/2/P2222 - RNCFACMU, MIGUEL ESPARZA BELMONTE_NT/Compras/P2222 - RNCFACMU, MIGUEL ESPARZA BELMONTE_NT.xlsx
@@ -1002,9 +1002,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>5228</t>
-  </si>
-  <si>
     <t>921B</t>
   </si>
   <si>
@@ -1012,6 +1009,9 @@
   </si>
   <si>
     <t>0EFC</t>
+  </si>
+  <si>
+    <t>5238</t>
   </si>
 </sst>
 </file>
@@ -3723,8 +3723,8 @@
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4448,16 +4448,16 @@
         <v>27</v>
       </c>
       <c r="L23" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="M23" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="M23" s="81" t="s">
+      <c r="N23" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="N23" s="81" t="s">
+      <c r="O23" s="82" t="s">
         <v>113</v>
-      </c>
-      <c r="O23" s="82" t="s">
-        <v>114</v>
       </c>
       <c r="P23" s="44">
         <v>2640</v>
